--- a/biology/Médecine/Phénylpropanolamine/Phénylpropanolamine.xlsx
+++ b/biology/Médecine/Phénylpropanolamine/Phénylpropanolamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nylpropanolamine</t>
+          <t>Phénylpropanolamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La phénylpropanolamine ou noréphédrine était un médicament de la famille des phényléthylamines utilisé comme décongestionnant nasal et des bronches, et comme anorexigène. Il y a quatre stéréo-isomères de la phénylpropanolamine : d- et l-noréphédrine, et d- et l-norpseudoéphédrine. La D-norpseudoéphédrine est également appelée cathine, et se rencontre à l'état naturel dans la plante stimulante Catha edulis (khat). 
 Récemment, la phénylpropanolamine a été retirée du marché dans beaucoup de pays. 
 En Belgique, la phénylpropanolamine a d'abord été interdite dans les coupe-faim, mais autorisée à faible dose en mélange dans des anti-rhume (dorénavant sous prescription), puis suspendue. La délivrance des médicaments à usage humain contenant de la phénylpropanolamine
-est interdite à partir du 28 janvier 2008[2].
+est interdite à partir du 28 janvier 2008.
 En France, il n'y a plus de médicaments à base de phénylpropanolamine.
 En Suisse, la phénylpropanolamine est commercialisée sous le nom de Slim Caps et est présente dans trois associations de médicaments anti-rhume.
 </t>
